--- a/data/CambodiaFood_test.xlsx
+++ b/data/CambodiaFood_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phjgi\OneDrive\바탕 화면\4학년\방학\식영과 사업\데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seon/Desktop/CambodiaNAS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19CB37A-B675-44BE-907C-DB8DD369DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E5E7A3-CAAF-A748-BCBF-1D94C6489BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="740" windowWidth="21960" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cambodia food" sheetId="2" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Ingrdient Code</t>
+    <t>Ingredient Code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,11 +252,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -402,9 +404,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -631,24 +630,24 @@
   <dimension ref="A1:E931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -658,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -675,7 +674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -692,7 +691,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -709,7 +708,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -726,7 +725,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -743,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -760,7 +759,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -777,7 +776,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -794,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -811,7 +810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -828,7 +827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -845,7 +844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -862,7 +861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -879,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -896,7 +895,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -913,7 +912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -930,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -947,7 +946,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -964,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -981,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -998,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>6</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>6</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>6</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>7</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>7</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>7</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>8</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>9</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>10</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>10</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>10</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>10</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -1508,4402 +1507,4402 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="3:5">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="3:5">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="3:5">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="3:5">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="3:5">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="3:5">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="3:5">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="3:5">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="3:5">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="3:5">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="3:5">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="3:5">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="3:5">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="3:5">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="3:5">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="3:5">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="3:5">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C90" s="2"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C92" s="2"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C96" s="2"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98" s="2"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100" s="2"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C110" s="2"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C112" s="2"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C117" s="2"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" s="2"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" s="2"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" s="2"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C123" s="2"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C130" s="2"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" s="2"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" s="2"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C135" s="2"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C136" s="2"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C138" s="2"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="3:5">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C140" s="2"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="3:5">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C141" s="2"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="3:5">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C142" s="2"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="3:5">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C143" s="2"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="3:5">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C144" s="2"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C145" s="2"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C147" s="2"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C148" s="2"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C149" s="2"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="3:5">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="3:5">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C151" s="2"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="3:5">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="3:5">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="3:5">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="3:5">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="3:5">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="3:5">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C157" s="2"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="3:5">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C158" s="2"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="3:5">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="3:5">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="3:5">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="3:5">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="3:5">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C163" s="2"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="3:5">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C164" s="2"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="3:5">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="3:5">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C166" s="2"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="3:5">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="3:5">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="3:5">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="3:5">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="3:5">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C171" s="2"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="3:5">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" s="2"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="3:5">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" s="2"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="3:5">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C174" s="2"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="3:5">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="3:5">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="3:5">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C177" s="2"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="3:5">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="3:5">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C179" s="2"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="3:5">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C180" s="2"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="3:5">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C181" s="2"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="3:5">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C182" s="2"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="3:5">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="2"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="3:5">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" s="2"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="3:5">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C185" s="2"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="3:5">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C186" s="2"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="3:5">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C187" s="2"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="3:5">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="3:5">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C189" s="2"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="3:5">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C190" s="2"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="3:5">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="3:5">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C192" s="2"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="3:5">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C193" s="2"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="3:5">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C194" s="2"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="3:5">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C195" s="2"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="3:5">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C196" s="2"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="3:5">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C197" s="2"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="3:5">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C198" s="2"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="3:5">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C199" s="2"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="3:5">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C200" s="2"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="3:5">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C201" s="2"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="3:5">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C202" s="2"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="3:5">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="2"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="3:5">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C204" s="2"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="3:5">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C205" s="2"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="3:5">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C206" s="2"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="3:5">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C207" s="2"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="3:5">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C208" s="2"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="3:5">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C209" s="2"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="3:5">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C210" s="2"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="3:5">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C211" s="2"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="3:5">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C212" s="2"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="3:5">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C213" s="2"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="3:5">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C214" s="2"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="3:5">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C215" s="2"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="3:5">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C216" s="2"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="3:5">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C217" s="2"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="3:5">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C218" s="2"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="3:5">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C219" s="2"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="3:5">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C220" s="2"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="3:5">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C221" s="2"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="3:5">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C222" s="2"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="3:5">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C223" s="2"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="3:5">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C224" s="2"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="3:5">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C225" s="2"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="3:5">
+    <row r="226" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C226" s="2"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="3:5">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C227" s="2"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="3:5">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C228" s="2"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="3:5">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C229" s="2"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="3:5">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C230" s="2"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="3:5">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C231" s="2"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="3:5">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C232" s="2"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="3:5">
+    <row r="233" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C233" s="2"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="3:5">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C234" s="2"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="3:5">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="3:5">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C236" s="2"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="3:5">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="3:5">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C238" s="2"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="3:5">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="3:5">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C240" s="2"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="3:5">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C241" s="2"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="3:5">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C242" s="2"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="3:5">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C243" s="2"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="3:5">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C244" s="2"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="3:5">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C245" s="2"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="3:5">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="3:5">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="3:5">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="3:5">
+    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C249" s="2"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="3:5">
+    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C250" s="2"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="3:5">
+    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C251" s="2"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="3:5">
+    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C252" s="2"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="3:5">
+    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C253" s="2"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="3:5">
+    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C254" s="2"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="3:5">
+    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C255" s="2"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="3:5">
+    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C256" s="2"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="3:5">
+    <row r="257" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C257" s="2"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="3:5">
+    <row r="258" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C258" s="2"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="3:5">
+    <row r="259" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C259" s="2"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="3:5">
+    <row r="260" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C260" s="2"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="3:5">
+    <row r="261" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C261" s="2"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="3:5">
+    <row r="262" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C262" s="2"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="3:5">
+    <row r="263" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C263" s="2"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="3:5">
+    <row r="264" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C264" s="2"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="3:5">
+    <row r="265" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C265" s="2"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="3:5">
+    <row r="266" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C266" s="2"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="3:5">
+    <row r="267" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C267" s="2"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="3:5">
+    <row r="268" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C268" s="2"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="3:5">
+    <row r="269" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C269" s="2"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="3:5">
+    <row r="270" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C270" s="2"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="3:5">
+    <row r="271" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C271" s="2"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="3:5">
+    <row r="272" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C272" s="2"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="3:5">
+    <row r="273" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C273" s="2"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="3:5">
+    <row r="274" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C274" s="2"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="3:5">
+    <row r="275" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C275" s="2"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="3:5">
+    <row r="276" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C276" s="2"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="3:5">
+    <row r="277" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C277" s="2"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="3:5">
+    <row r="278" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C278" s="2"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="3:5">
+    <row r="279" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C279" s="2"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="3:5">
+    <row r="280" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C280" s="2"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="3:5">
+    <row r="281" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C281" s="2"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="3:5">
+    <row r="282" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C282" s="2"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="3:5">
+    <row r="283" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C283" s="2"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="3:5">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C284" s="2"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="3:5">
+    <row r="285" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C285" s="2"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="3:5">
+    <row r="286" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C286" s="2"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="3:5">
+    <row r="287" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C287" s="2"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="3:5">
+    <row r="288" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C288" s="2"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="3:5">
+    <row r="289" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C289" s="2"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="3:5">
+    <row r="290" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C290" s="2"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="3:5">
+    <row r="291" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C291" s="2"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="3:5">
+    <row r="292" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C292" s="2"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="3:5">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C293" s="2"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="3:5">
+    <row r="294" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C294" s="2"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="3:5">
+    <row r="295" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C295" s="2"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="3:5">
+    <row r="296" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C296" s="2"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="3:5">
+    <row r="297" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C297" s="2"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="3:5">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C298" s="2"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="3:5">
+    <row r="299" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C299" s="2"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="3:5">
+    <row r="300" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C300" s="2"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="3:5">
+    <row r="301" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C301" s="2"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="3:5">
+    <row r="302" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C302" s="2"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="3:5">
+    <row r="303" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C303" s="2"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="3:5">
+    <row r="304" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C304" s="2"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="3:5">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C305" s="2"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="3:5">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C306" s="2"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="3:5">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C307" s="2"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="3:5">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C308" s="2"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="3:5">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C309" s="2"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="3:5">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C310" s="2"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="3:5">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C311" s="2"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="3:5">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C312" s="2"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="3:5">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C313" s="2"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="3:5">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C314" s="2"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="3:5">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C315" s="2"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="3:5">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C316" s="2"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="3:5">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C317" s="2"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="3:5">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C318" s="2"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="3:5">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C319" s="2"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="3:5">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C320" s="2"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="3:5">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C321" s="2"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="3:5">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C322" s="2"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="3:5">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C323" s="2"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="3:5">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C324" s="2"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="3:5">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C325" s="2"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="3:5">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C326" s="2"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="3:5">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C327" s="2"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="3:5">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C328" s="2"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="3:5">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C329" s="2"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="3:5">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C330" s="2"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="3:5">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C331" s="2"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="3:5">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C332" s="2"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="3:5">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C333" s="2"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="3:5">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C334" s="2"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="3:5">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C335" s="2"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="3:5">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C336" s="2"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="3:5">
+    <row r="337" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C337" s="2"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="3:5">
+    <row r="338" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C338" s="2"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="3:5">
+    <row r="339" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C339" s="2"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="3:5">
+    <row r="340" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C340" s="2"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="3:5">
+    <row r="341" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C341" s="2"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="3:5">
+    <row r="342" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C342" s="2"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="3:5">
+    <row r="343" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C343" s="2"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="3:5">
+    <row r="344" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C344" s="2"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="3:5">
+    <row r="345" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C345" s="2"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="3:5">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C346" s="2"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="3:5">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C347" s="2"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="3:5">
+    <row r="348" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C348" s="2"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="3:5">
+    <row r="349" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C349" s="2"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="3:5">
+    <row r="350" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C350" s="2"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="3:5">
+    <row r="351" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C351" s="2"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="3:5">
+    <row r="352" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C352" s="2"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="3:5">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C353" s="2"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="3:5">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C354" s="2"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="3:5">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C355" s="2"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="3:5">
+    <row r="356" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C356" s="2"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="3:5">
+    <row r="357" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C357" s="2"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="3:5">
+    <row r="358" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C358" s="2"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="3:5">
+    <row r="359" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C359" s="2"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="3:5">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C360" s="2"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="3:5">
+    <row r="361" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C361" s="2"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="3:5">
+    <row r="362" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C362" s="2"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="3:5">
+    <row r="363" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C363" s="2"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="3:5">
+    <row r="364" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C364" s="2"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="3:5">
+    <row r="365" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C365" s="2"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="3:5">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C366" s="2"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="3:5">
+    <row r="367" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C367" s="2"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="3:5">
+    <row r="368" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C368" s="2"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="3:5">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C369" s="2"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="3:5">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C370" s="2"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="3:5">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C371" s="2"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="3:5">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C372" s="2"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="3:5">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C373" s="2"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="3:5">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C374" s="2"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="3:5">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C375" s="2"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="3:5">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C376" s="2"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="3:5">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C377" s="2"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="3:5">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C378" s="2"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="3:5">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C379" s="2"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="3:5">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C380" s="2"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="3:5">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C381" s="2"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="3:5">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C382" s="2"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="3:5">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C383" s="2"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="3:5">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C384" s="2"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="3:5">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C385" s="2"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="3:5">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C386" s="2"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="3:5">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C387" s="2"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="3:5">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C388" s="2"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="3:5">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C389" s="2"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="3:5">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C390" s="2"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="3:5">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C391" s="2"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="3:5">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C392" s="2"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="3:5">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C393" s="2"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="3:5">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C394" s="2"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="3:5">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C395" s="2"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="3:5">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C396" s="2"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="3:5">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C397" s="2"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="3:5">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C398" s="2"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="3:5">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C399" s="2"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="3:5">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C400" s="2"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="3:5">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C401" s="2"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="3:5">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C402" s="2"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="3:5">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C403" s="2"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="3:5">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C404" s="2"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="3:5">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C405" s="2"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="3:5">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C406" s="2"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="3:5">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C407" s="2"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="3:5">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C408" s="2"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="3:5">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C409" s="2"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="3:5">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C410" s="2"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="3:5">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C411" s="2"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="3:5">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C412" s="2"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="3:5">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C413" s="2"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="3:5">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C414" s="2"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="3:5">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C415" s="2"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="3:5">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C416" s="2"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="3:5">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C417" s="2"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="3:5">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C418" s="2"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="3:5">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C419" s="2"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="3:5">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C420" s="2"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="3:5">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C421" s="2"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="3:5">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C422" s="2"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="3:5">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C423" s="2"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="3:5">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C424" s="2"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="3:5">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C425" s="2"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="3:5">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C426" s="2"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="3:5">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C427" s="2"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="3:5">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C428" s="2"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="3:5">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C429" s="2"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="3:5">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C430" s="2"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="3:5">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C431" s="2"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="3:5">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C432" s="2"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="3:5">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C433" s="2"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="3:5">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C434" s="2"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="3:5">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C435" s="2"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="3:5">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C436" s="2"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="3:5">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C437" s="2"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="3:5">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C438" s="2"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="3:5">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C439" s="2"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="3:5">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C440" s="2"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="3:5">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C441" s="2"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="3:5">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C442" s="2"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="3:5">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C443" s="2"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="3:5">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C444" s="2"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="3:5">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C445" s="2"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="3:5">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C446" s="2"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="3:5">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C447" s="2"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="3:5">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C448" s="2"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="3:5">
+    <row r="449" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C449" s="2"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="3:5">
+    <row r="450" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C450" s="2"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="3:5">
+    <row r="451" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C451" s="2"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="3:5">
+    <row r="452" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C452" s="2"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="3:5">
+    <row r="453" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C453" s="2"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="3:5">
+    <row r="454" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C454" s="2"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="3:5">
+    <row r="455" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C455" s="2"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="3:5">
+    <row r="456" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C456" s="2"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="3:5">
+    <row r="457" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C457" s="2"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="3:5">
+    <row r="458" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C458" s="2"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="3:5">
+    <row r="459" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C459" s="2"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="3:5">
+    <row r="460" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C460" s="2"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="3:5">
+    <row r="461" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C461" s="2"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="3:5">
+    <row r="462" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C462" s="2"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="3:5">
+    <row r="463" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C463" s="2"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="3:5">
+    <row r="464" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C464" s="2"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="3:5">
+    <row r="465" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C465" s="2"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="3:5">
+    <row r="466" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C466" s="2"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="3:5">
+    <row r="467" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C467" s="2"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="3:5">
+    <row r="468" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C468" s="2"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="3:5">
+    <row r="469" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C469" s="2"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="3:5">
+    <row r="470" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C470" s="2"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="3:5">
+    <row r="471" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C471" s="2"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="3:5">
+    <row r="472" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C472" s="2"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="3:5">
+    <row r="473" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C473" s="2"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="3:5">
+    <row r="474" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C474" s="2"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="3:5">
+    <row r="475" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C475" s="2"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="3:5">
+    <row r="476" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C476" s="2"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="3:5">
+    <row r="477" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C477" s="2"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="3:5">
+    <row r="478" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C478" s="2"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="3:5">
+    <row r="479" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C479" s="2"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="3:5">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C480" s="2"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="3:5">
+    <row r="481" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C481" s="2"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="3:5">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C482" s="2"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="3:5">
+    <row r="483" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C483" s="2"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="3:5">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C484" s="2"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="3:5">
+    <row r="485" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C485" s="2"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="3:5">
+    <row r="486" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C486" s="2"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="3:5">
+    <row r="487" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C487" s="2"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="3:5">
+    <row r="488" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C488" s="2"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="3:5">
+    <row r="489" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C489" s="2"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="3:5">
+    <row r="490" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C490" s="2"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="3:5">
+    <row r="491" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C491" s="2"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="3:5">
+    <row r="492" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C492" s="2"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="3:5">
+    <row r="493" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C493" s="2"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="3:5">
+    <row r="494" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C494" s="2"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="3:5">
+    <row r="495" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C495" s="2"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="3:5">
+    <row r="496" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C496" s="2"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="3:5">
+    <row r="497" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C497" s="2"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="3:5">
+    <row r="498" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C498" s="2"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="3:5">
+    <row r="499" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C499" s="2"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="3:5">
+    <row r="500" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C500" s="2"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="3:5">
+    <row r="501" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C501" s="2"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="3:5">
+    <row r="502" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C502" s="2"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="3:5">
+    <row r="503" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C503" s="2"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="3:5">
+    <row r="504" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C504" s="2"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="3:5">
+    <row r="505" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C505" s="2"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="3:5">
+    <row r="506" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C506" s="2"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="3:5">
+    <row r="507" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C507" s="2"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="3:5">
+    <row r="508" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C508" s="2"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="3:5">
+    <row r="509" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C509" s="2"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="3:5">
+    <row r="510" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C510" s="2"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="3:5">
+    <row r="511" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C511" s="2"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="3:5">
+    <row r="512" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C512" s="2"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="3:5">
+    <row r="513" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C513" s="2"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="3:5">
+    <row r="514" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C514" s="2"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="3:5">
+    <row r="515" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C515" s="2"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="3:5">
+    <row r="516" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C516" s="2"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="3:5">
+    <row r="517" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C517" s="2"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="3:5">
+    <row r="518" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C518" s="2"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="3:5">
+    <row r="519" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C519" s="2"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="3:5">
+    <row r="520" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C520" s="2"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="3:5">
+    <row r="521" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C521" s="2"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="3:5">
+    <row r="522" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C522" s="2"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="3:5">
+    <row r="523" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C523" s="2"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="3:5">
+    <row r="524" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C524" s="2"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="3:5">
+    <row r="525" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C525" s="2"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="3:5">
+    <row r="526" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C526" s="2"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="3:5">
+    <row r="527" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C527" s="2"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="3:5">
+    <row r="528" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C528" s="2"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="3:5">
+    <row r="529" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C529" s="2"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="3:5">
+    <row r="530" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C530" s="2"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="3:5">
+    <row r="531" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C531" s="2"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="3:5">
+    <row r="532" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C532" s="2"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="3:5">
+    <row r="533" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C533" s="2"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="3:5">
+    <row r="534" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C534" s="2"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="3:5">
+    <row r="535" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C535" s="2"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="3:5">
+    <row r="536" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C536" s="2"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="3:5">
+    <row r="537" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C537" s="2"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="3:5">
+    <row r="538" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C538" s="2"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="3:5">
+    <row r="539" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C539" s="2"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="3:5">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C540" s="2"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="3:5">
+    <row r="541" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C541" s="2"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="3:5">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C542" s="2"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="3:5">
+    <row r="543" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C543" s="2"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="3:5">
+    <row r="544" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C544" s="2"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="3:5">
+    <row r="545" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C545" s="2"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="3:5">
+    <row r="546" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C546" s="2"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="3:5">
+    <row r="547" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C547" s="2"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="3:5">
+    <row r="548" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C548" s="2"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="3:5">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C549" s="2"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="3:5">
+    <row r="550" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C550" s="2"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="3:5">
+    <row r="551" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C551" s="2"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="3:5">
+    <row r="552" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C552" s="2"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="3:5">
+    <row r="553" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C553" s="2"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="3:5">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C554" s="2"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="3:5">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C555" s="2"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="3:5">
+    <row r="556" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C556" s="2"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="3:5">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C557" s="2"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="3:5">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C558" s="2"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="3:5">
+    <row r="559" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C559" s="2"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="3:5">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C560" s="2"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="3:5">
+    <row r="561" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C561" s="2"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="3:5">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C562" s="2"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="3:5">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C563" s="2"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="3:5">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C564" s="2"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="3:5">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C565" s="2"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="3:5">
+    <row r="566" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C566" s="2"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="3:5">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C567" s="2"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="3:5">
+    <row r="568" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C568" s="2"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="3:5">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C569" s="2"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="3:5">
+    <row r="570" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C570" s="2"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="3:5">
+    <row r="571" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C571" s="2"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="3:5">
+    <row r="572" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C572" s="2"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="3:5">
+    <row r="573" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C573" s="2"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="3:5">
+    <row r="574" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C574" s="2"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="3:5">
+    <row r="575" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C575" s="2"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="3:5">
+    <row r="576" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C576" s="2"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="3:5">
+    <row r="577" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C577" s="2"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="3:5">
+    <row r="578" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C578" s="2"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="3:5">
+    <row r="579" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C579" s="2"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="3:5">
+    <row r="580" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C580" s="2"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="3:5">
+    <row r="581" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C581" s="2"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="3:5">
+    <row r="582" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C582" s="2"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="3:5">
+    <row r="583" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C583" s="2"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="3:5">
+    <row r="584" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C584" s="2"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="3:5">
+    <row r="585" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C585" s="2"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="3:5">
+    <row r="586" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C586" s="2"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="3:5">
+    <row r="587" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C587" s="2"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="3:5">
+    <row r="588" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C588" s="2"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="3:5">
+    <row r="589" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C589" s="2"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="3:5">
+    <row r="590" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C590" s="2"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="3:5">
+    <row r="591" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C591" s="2"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="3:5">
+    <row r="592" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C592" s="2"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="3:5">
+    <row r="593" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C593" s="2"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="3:5">
+    <row r="594" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C594" s="2"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="3:5">
+    <row r="595" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C595" s="2"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="3:5">
+    <row r="596" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C596" s="2"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="3:5">
+    <row r="597" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C597" s="2"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="3:5">
+    <row r="598" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C598" s="2"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="3:5">
+    <row r="599" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C599" s="2"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="3:5">
+    <row r="600" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C600" s="2"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="3:5">
+    <row r="601" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C601" s="2"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="3:5">
+    <row r="602" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C602" s="2"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="3:5">
+    <row r="603" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C603" s="2"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="3:5">
+    <row r="604" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C604" s="2"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="3:5">
+    <row r="605" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C605" s="2"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="3:5">
+    <row r="606" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C606" s="2"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="3:5">
+    <row r="607" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C607" s="2"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="3:5">
+    <row r="608" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C608" s="2"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="3:5">
+    <row r="609" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C609" s="2"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="3:5">
+    <row r="610" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C610" s="2"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="3:5">
+    <row r="611" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C611" s="2"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="3:5">
+    <row r="612" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C612" s="2"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="3:5">
+    <row r="613" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C613" s="2"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="3:5">
+    <row r="614" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C614" s="2"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="3:5">
+    <row r="615" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C615" s="2"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="3:5">
+    <row r="616" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C616" s="2"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="3:5">
+    <row r="617" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C617" s="2"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="3:5">
+    <row r="618" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C618" s="2"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="3:5">
+    <row r="619" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C619" s="2"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="3:5">
+    <row r="620" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C620" s="2"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="3:5">
+    <row r="621" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C621" s="2"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="3:5">
+    <row r="622" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C622" s="2"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="3:5">
+    <row r="623" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C623" s="2"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="3:5">
+    <row r="624" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C624" s="2"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="3:5">
+    <row r="625" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C625" s="2"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="3:5">
+    <row r="626" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C626" s="2"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="3:5">
+    <row r="627" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C627" s="2"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="3:5">
+    <row r="628" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C628" s="2"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="3:5">
+    <row r="629" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C629" s="2"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="3:5">
+    <row r="630" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C630" s="2"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="3:5">
+    <row r="631" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C631" s="2"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="3:5">
+    <row r="632" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C632" s="2"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="3:5">
+    <row r="633" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C633" s="2"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="3:5">
+    <row r="634" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C634" s="2"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="3:5">
+    <row r="635" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C635" s="2"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="3:5">
+    <row r="636" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C636" s="2"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="3:5">
+    <row r="637" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C637" s="2"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="3:5">
+    <row r="638" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C638" s="2"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="3:5">
+    <row r="639" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C639" s="2"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="3:5">
+    <row r="640" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C640" s="2"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="3:5">
+    <row r="641" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C641" s="2"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="3:5">
+    <row r="642" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C642" s="2"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="3:5">
+    <row r="643" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C643" s="2"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="3:5">
+    <row r="644" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C644" s="2"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="3:5">
+    <row r="645" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C645" s="2"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="3:5">
+    <row r="646" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C646" s="2"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="3:5">
+    <row r="647" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C647" s="2"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="3:5">
+    <row r="648" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C648" s="2"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="3:5">
+    <row r="649" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C649" s="2"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="3:5">
+    <row r="650" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C650" s="2"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="3:5">
+    <row r="651" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C651" s="2"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="3:5">
+    <row r="652" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C652" s="2"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="3:5">
+    <row r="653" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C653" s="2"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="3:5">
+    <row r="654" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C654" s="2"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="3:5">
+    <row r="655" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C655" s="2"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="3:5">
+    <row r="656" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C656" s="2"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="3:5">
+    <row r="657" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C657" s="2"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="3:5">
+    <row r="658" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C658" s="2"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="3:5">
+    <row r="659" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C659" s="2"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="3:5">
+    <row r="660" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C660" s="2"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="3:5">
+    <row r="661" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C661" s="2"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="3:5">
+    <row r="662" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C662" s="2"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="3:5">
+    <row r="663" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C663" s="2"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="3:5">
+    <row r="664" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C664" s="2"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="3:5">
+    <row r="665" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C665" s="2"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="3:5">
+    <row r="666" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C666" s="2"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="3:5">
+    <row r="667" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C667" s="2"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="3:5">
+    <row r="668" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C668" s="2"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="3:5">
+    <row r="669" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C669" s="2"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="3:5">
+    <row r="670" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C670" s="2"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="3:5">
+    <row r="671" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C671" s="2"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="3:5">
+    <row r="672" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C672" s="2"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="3:5">
+    <row r="673" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C673" s="2"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="3:5">
+    <row r="674" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C674" s="2"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="3:5">
+    <row r="675" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C675" s="2"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="3:5">
+    <row r="676" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C676" s="2"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="3:5">
+    <row r="677" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C677" s="2"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="3:5">
+    <row r="678" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C678" s="2"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="3:5">
+    <row r="679" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C679" s="2"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="3:5">
+    <row r="680" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C680" s="2"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="3:5">
+    <row r="681" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C681" s="2"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="3:5">
+    <row r="682" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C682" s="2"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="3:5">
+    <row r="683" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C683" s="2"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="3:5">
+    <row r="684" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C684" s="2"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="3:5">
+    <row r="685" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C685" s="2"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="3:5">
+    <row r="686" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C686" s="2"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="3:5">
+    <row r="687" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C687" s="2"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="3:5">
+    <row r="688" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C688" s="2"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="3:5">
+    <row r="689" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C689" s="2"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="3:5">
+    <row r="690" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C690" s="2"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="3:5">
+    <row r="691" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C691" s="2"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="3:5">
+    <row r="692" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C692" s="2"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="3:5">
+    <row r="693" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C693" s="2"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="3:5">
+    <row r="694" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C694" s="2"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="3:5">
+    <row r="695" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C695" s="2"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="3:5">
+    <row r="696" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C696" s="2"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="3:5">
+    <row r="697" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C697" s="2"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="3:5">
+    <row r="698" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C698" s="2"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="3:5">
+    <row r="699" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C699" s="2"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="3:5">
+    <row r="700" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C700" s="2"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="3:5">
+    <row r="701" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C701" s="2"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="3:5">
+    <row r="702" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C702" s="2"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="3:5">
+    <row r="703" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C703" s="2"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="3:5">
+    <row r="704" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C704" s="2"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="3:5">
+    <row r="705" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C705" s="2"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="3:5">
+    <row r="706" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C706" s="2"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="3:5">
+    <row r="707" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C707" s="2"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="3:5">
+    <row r="708" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C708" s="2"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="3:5">
+    <row r="709" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C709" s="2"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="3:5">
+    <row r="710" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C710" s="2"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="3:5">
+    <row r="711" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C711" s="2"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="3:5">
+    <row r="712" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C712" s="2"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="3:5">
+    <row r="713" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C713" s="2"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="3:5">
+    <row r="714" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C714" s="2"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="3:5">
+    <row r="715" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C715" s="2"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="3:5">
+    <row r="716" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C716" s="2"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="3:5">
+    <row r="717" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C717" s="2"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="3:5">
+    <row r="718" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C718" s="2"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="3:5">
+    <row r="719" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C719" s="2"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="3:5">
+    <row r="720" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C720" s="2"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="3:5">
+    <row r="721" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C721" s="2"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="3:5">
+    <row r="722" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C722" s="2"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="3:5">
+    <row r="723" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C723" s="2"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="3:5">
+    <row r="724" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C724" s="2"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="3:5">
+    <row r="725" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C725" s="2"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="3:5">
+    <row r="726" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C726" s="2"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="3:5">
+    <row r="727" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C727" s="2"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="3:5">
+    <row r="728" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C728" s="2"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="3:5">
+    <row r="729" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C729" s="2"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="3:5">
+    <row r="730" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C730" s="2"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="3:5">
+    <row r="731" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C731" s="2"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="3:5">
+    <row r="732" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C732" s="2"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="3:5">
+    <row r="733" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C733" s="2"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="3:5">
+    <row r="734" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C734" s="2"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="3:5">
+    <row r="735" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C735" s="2"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="3:5">
+    <row r="736" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C736" s="2"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="3:5">
+    <row r="737" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C737" s="2"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="3:5">
+    <row r="738" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C738" s="2"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="3:5">
+    <row r="739" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C739" s="2"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="3:5">
+    <row r="740" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C740" s="2"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="3:5">
+    <row r="741" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C741" s="2"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="3:5">
+    <row r="742" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C742" s="2"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="3:5">
+    <row r="743" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C743" s="2"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="3:5">
+    <row r="744" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C744" s="2"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="3:5">
+    <row r="745" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C745" s="2"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="3:5">
+    <row r="746" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C746" s="2"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="3:5">
+    <row r="747" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C747" s="2"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="3:5">
+    <row r="748" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C748" s="2"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="3:5">
+    <row r="749" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C749" s="2"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="3:5">
+    <row r="750" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C750" s="2"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="3:5">
+    <row r="751" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C751" s="2"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="3:5">
+    <row r="752" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C752" s="2"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="3:5">
+    <row r="753" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C753" s="2"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="3:5">
+    <row r="754" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C754" s="2"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="3:5">
+    <row r="755" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C755" s="2"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="3:5">
+    <row r="756" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C756" s="2"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="3:5">
+    <row r="757" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C757" s="2"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="3:5">
+    <row r="758" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C758" s="2"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="3:5">
+    <row r="759" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C759" s="2"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="3:5">
+    <row r="760" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C760" s="2"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="3:5">
+    <row r="761" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C761" s="2"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="3:5">
+    <row r="762" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C762" s="2"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="3:5">
+    <row r="763" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C763" s="2"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="3:5">
+    <row r="764" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C764" s="2"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="3:5">
+    <row r="765" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C765" s="2"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="3:5">
+    <row r="766" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C766" s="2"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="3:5">
+    <row r="767" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C767" s="2"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="3:5">
+    <row r="768" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C768" s="2"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="3:5">
+    <row r="769" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C769" s="2"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="3:5">
+    <row r="770" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C770" s="2"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="3:5">
+    <row r="771" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C771" s="2"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="3:5">
+    <row r="772" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C772" s="2"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="3:5">
+    <row r="773" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C773" s="2"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="3:5">
+    <row r="774" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C774" s="2"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="3:5">
+    <row r="775" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C775" s="2"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="3:5">
+    <row r="776" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C776" s="2"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="3:5">
+    <row r="777" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C777" s="2"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="3:5">
+    <row r="778" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C778" s="2"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="3:5">
+    <row r="779" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C779" s="2"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="3:5">
+    <row r="780" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C780" s="2"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="3:5">
+    <row r="781" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C781" s="2"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="3:5">
+    <row r="782" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C782" s="2"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="3:5">
+    <row r="783" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C783" s="2"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="3:5">
+    <row r="784" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C784" s="2"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="3:5">
+    <row r="785" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C785" s="2"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="3:5">
+    <row r="786" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C786" s="2"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="3:5">
+    <row r="787" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C787" s="2"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="3:5">
+    <row r="788" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C788" s="2"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="3:5">
+    <row r="789" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C789" s="2"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="3:5">
+    <row r="790" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C790" s="2"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="3:5">
+    <row r="791" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C791" s="2"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="3:5">
+    <row r="792" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C792" s="2"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="3:5">
+    <row r="793" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C793" s="2"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="3:5">
+    <row r="794" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C794" s="2"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="3:5">
+    <row r="795" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C795" s="2"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="3:5">
+    <row r="796" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C796" s="2"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="3:5">
+    <row r="797" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C797" s="2"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="3:5">
+    <row r="798" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C798" s="2"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="3:5">
+    <row r="799" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C799" s="2"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="3:5">
+    <row r="800" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C800" s="2"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="3:5">
+    <row r="801" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C801" s="2"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="3:5">
+    <row r="802" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C802" s="2"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="3:5">
+    <row r="803" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C803" s="2"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="3:5">
+    <row r="804" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C804" s="2"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="3:5">
+    <row r="805" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C805" s="2"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="3:5">
+    <row r="806" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C806" s="2"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="3:5">
+    <row r="807" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C807" s="2"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="3:5">
+    <row r="808" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C808" s="2"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="3:5">
+    <row r="809" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C809" s="2"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="3:5">
+    <row r="810" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C810" s="2"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="3:5">
+    <row r="811" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C811" s="2"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="3:5">
+    <row r="812" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C812" s="2"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="3:5">
+    <row r="813" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C813" s="2"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="3:5">
+    <row r="814" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C814" s="2"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="3:5">
+    <row r="815" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C815" s="2"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="3:5">
+    <row r="816" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C816" s="2"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="3:5">
+    <row r="817" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C817" s="2"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="3:5">
+    <row r="818" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C818" s="2"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="3:5">
+    <row r="819" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C819" s="2"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="3:5">
+    <row r="820" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C820" s="2"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="3:5">
+    <row r="821" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C821" s="2"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="3:5">
+    <row r="822" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C822" s="2"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="3:5">
+    <row r="823" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C823" s="2"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="3:5">
+    <row r="824" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C824" s="2"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="3:5">
+    <row r="825" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C825" s="2"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="3:5">
+    <row r="826" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C826" s="2"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="3:5">
+    <row r="827" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C827" s="2"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="3:5">
+    <row r="828" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C828" s="2"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="3:5">
+    <row r="829" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C829" s="2"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="3:5">
+    <row r="830" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C830" s="2"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="3:5">
+    <row r="831" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C831" s="2"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="3:5">
+    <row r="832" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C832" s="2"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="3:5">
+    <row r="833" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C833" s="2"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="3:5">
+    <row r="834" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C834" s="2"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="3:5">
+    <row r="835" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C835" s="2"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="3:5">
+    <row r="836" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C836" s="2"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="3:5">
+    <row r="837" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C837" s="2"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="3:5">
+    <row r="838" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C838" s="2"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="3:5">
+    <row r="839" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C839" s="2"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="3:5">
+    <row r="840" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C840" s="2"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="3:5">
+    <row r="841" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C841" s="2"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="3:5">
+    <row r="842" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C842" s="2"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="3:5">
+    <row r="843" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C843" s="2"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="3:5">
+    <row r="844" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C844" s="2"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="3:5">
+    <row r="845" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C845" s="2"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="3:5">
+    <row r="846" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C846" s="2"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="3:5">
+    <row r="847" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C847" s="2"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="3:5">
+    <row r="848" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C848" s="2"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="3:5">
+    <row r="849" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C849" s="2"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="3:5">
+    <row r="850" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C850" s="2"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="3:5">
+    <row r="851" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C851" s="2"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="3:5">
+    <row r="852" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C852" s="2"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="3:5">
+    <row r="853" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C853" s="2"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="3:5">
+    <row r="854" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C854" s="2"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="3:5">
+    <row r="855" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C855" s="2"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="3:5">
+    <row r="856" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C856" s="2"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="3:5">
+    <row r="857" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C857" s="2"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="3:5">
+    <row r="858" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C858" s="2"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="3:5">
+    <row r="859" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C859" s="2"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="3:5">
+    <row r="860" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C860" s="2"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="3:5">
+    <row r="861" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C861" s="2"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="3:5">
+    <row r="862" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C862" s="2"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="3:5">
+    <row r="863" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C863" s="2"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="3:5">
+    <row r="864" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C864" s="2"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="3:5">
+    <row r="865" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C865" s="2"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="3:5">
+    <row r="866" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C866" s="2"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="3:5">
+    <row r="867" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C867" s="2"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="3:5">
+    <row r="868" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C868" s="2"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="3:5">
+    <row r="869" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C869" s="2"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="3:5">
+    <row r="870" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C870" s="2"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="3:5">
+    <row r="871" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C871" s="2"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="3:5">
+    <row r="872" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C872" s="2"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="3:5">
+    <row r="873" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C873" s="2"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="3:5">
+    <row r="874" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C874" s="2"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="3:5">
+    <row r="875" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C875" s="2"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="3:5">
+    <row r="876" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C876" s="2"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="3:5">
+    <row r="877" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C877" s="2"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="3:5">
+    <row r="878" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C878" s="2"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="3:5">
+    <row r="879" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C879" s="2"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="3:5">
+    <row r="880" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C880" s="2"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="3:5">
+    <row r="881" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C881" s="2"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="3:5">
+    <row r="882" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C882" s="2"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
     </row>
-    <row r="883" spans="3:5">
+    <row r="883" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C883" s="2"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
     </row>
-    <row r="884" spans="3:5">
+    <row r="884" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C884" s="2"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
     </row>
-    <row r="885" spans="3:5">
+    <row r="885" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C885" s="2"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
     </row>
-    <row r="886" spans="3:5">
+    <row r="886" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C886" s="2"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
     </row>
-    <row r="887" spans="3:5">
+    <row r="887" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C887" s="2"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
     </row>
-    <row r="888" spans="3:5">
+    <row r="888" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C888" s="2"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
     </row>
-    <row r="889" spans="3:5">
+    <row r="889" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C889" s="2"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
     </row>
-    <row r="890" spans="3:5">
+    <row r="890" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C890" s="2"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
     </row>
-    <row r="891" spans="3:5">
+    <row r="891" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C891" s="2"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
     </row>
-    <row r="892" spans="3:5">
+    <row r="892" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C892" s="2"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
     </row>
-    <row r="893" spans="3:5">
+    <row r="893" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C893" s="2"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
     </row>
-    <row r="894" spans="3:5">
+    <row r="894" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C894" s="2"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
     </row>
-    <row r="895" spans="3:5">
+    <row r="895" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C895" s="2"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
     </row>
-    <row r="896" spans="3:5">
+    <row r="896" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C896" s="2"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
     </row>
-    <row r="897" spans="3:5">
+    <row r="897" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C897" s="2"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
     </row>
-    <row r="898" spans="3:5">
+    <row r="898" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C898" s="2"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
     </row>
-    <row r="899" spans="3:5">
+    <row r="899" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C899" s="2"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
     </row>
-    <row r="900" spans="3:5">
+    <row r="900" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C900" s="2"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
     </row>
-    <row r="901" spans="3:5">
+    <row r="901" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C901" s="2"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
     </row>
-    <row r="902" spans="3:5">
+    <row r="902" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C902" s="2"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
     </row>
-    <row r="903" spans="3:5">
+    <row r="903" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C903" s="2"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
     </row>
-    <row r="904" spans="3:5">
+    <row r="904" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C904" s="2"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
     </row>
-    <row r="905" spans="3:5">
+    <row r="905" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C905" s="2"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
     </row>
-    <row r="906" spans="3:5">
+    <row r="906" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C906" s="2"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
     </row>
-    <row r="907" spans="3:5">
+    <row r="907" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C907" s="2"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
     </row>
-    <row r="908" spans="3:5">
+    <row r="908" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C908" s="2"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
     </row>
-    <row r="909" spans="3:5">
+    <row r="909" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C909" s="2"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
     </row>
-    <row r="910" spans="3:5">
+    <row r="910" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C910" s="2"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
     </row>
-    <row r="911" spans="3:5">
+    <row r="911" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C911" s="2"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
     </row>
-    <row r="912" spans="3:5">
+    <row r="912" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C912" s="2"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
     </row>
-    <row r="913" spans="3:5">
+    <row r="913" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C913" s="2"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
     </row>
-    <row r="914" spans="3:5">
+    <row r="914" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C914" s="2"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
     </row>
-    <row r="915" spans="3:5">
+    <row r="915" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C915" s="2"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
     </row>
-    <row r="916" spans="3:5">
+    <row r="916" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C916" s="2"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
     </row>
-    <row r="917" spans="3:5">
+    <row r="917" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C917" s="2"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
     </row>
-    <row r="918" spans="3:5">
+    <row r="918" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C918" s="2"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
     </row>
-    <row r="919" spans="3:5">
+    <row r="919" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C919" s="2"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
     </row>
-    <row r="920" spans="3:5">
+    <row r="920" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C920" s="2"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
     </row>
-    <row r="921" spans="3:5">
+    <row r="921" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C921" s="2"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
     </row>
-    <row r="922" spans="3:5">
+    <row r="922" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C922" s="2"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
     </row>
-    <row r="923" spans="3:5">
+    <row r="923" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C923" s="2"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
     </row>
-    <row r="924" spans="3:5">
+    <row r="924" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C924" s="2"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
     </row>
-    <row r="925" spans="3:5">
+    <row r="925" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C925" s="2"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
     </row>
-    <row r="926" spans="3:5">
+    <row r="926" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C926" s="2"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
     </row>
-    <row r="927" spans="3:5">
+    <row r="927" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C927" s="2"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
     </row>
-    <row r="928" spans="3:5">
+    <row r="928" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C928" s="2"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
     </row>
-    <row r="929" spans="3:5">
+    <row r="929" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C929" s="2"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
     </row>
-    <row r="930" spans="3:5">
+    <row r="930" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C930" s="2"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
     </row>
-    <row r="931" spans="3:5">
+    <row r="931" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C931" s="2"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
